--- a/plano-de-aulas.xlsx
+++ b/plano-de-aulas.xlsx
@@ -13,96 +13,156 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Data</t>
   </si>
   <si>
-    <t>Questão/Problema/Desafio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fundamentos / Conteúdo</t>
+    <t>Questão</t>
+  </si>
+  <si>
+    <t>Conteúdo</t>
   </si>
   <si>
     <t xml:space="preserve">Evidências de Aprendizado</t>
   </si>
   <si>
-    <t>Programação/Atividades</t>
-  </si>
-  <si>
-    <t>14-Ago</t>
-  </si>
-  <si>
-    <t>16-Ago</t>
-  </si>
-  <si>
-    <t>21-Ago</t>
-  </si>
-  <si>
-    <t>23-Ago</t>
-  </si>
-  <si>
-    <t>28-Ago</t>
-  </si>
-  <si>
-    <t>30-Ago</t>
+    <t>Atividades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que é empreender?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empreendedorismo para a vida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empreendedorismo é um comportamento para o desenvolvimento de pessoas, de organizações e do mundo; Aproveite as oportunidades que serão oferecidas no curso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apresentação da disciplina; Bate papo com empreendedores do Insper.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que é empreender em IA?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impactos atuais e futuros da IA; Visão geral das startups de IA; Projetos de pesquisa promissores de IA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como entender a situação atual e futura da IA e suas aplicações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pré-aula: pesquisa de startups de IA no Crunchbase e outras referências;  Desafio das startups mais promissoras; Desafio dos projetos de IA mais promissores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desenvolvimento de startups na visão dos investidores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entendimento da lógica de investimento de venture capital; Aprendendo a relacionar-se com investidores.</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>04-Set</t>
-  </si>
-  <si>
-    <t>06-Set</t>
-  </si>
-  <si>
-    <t>11-Set</t>
-  </si>
-  <si>
-    <t>13-Set</t>
-  </si>
-  <si>
-    <t>18-Set</t>
-  </si>
-  <si>
-    <t>20-Set</t>
-  </si>
-  <si>
-    <t>25-Set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEMANA DE PROVAS</t>
-  </si>
-  <si>
-    <t>27-Set</t>
-  </si>
-  <si>
-    <t>02-Out</t>
-  </si>
-  <si>
-    <t>04-Out</t>
-  </si>
-  <si>
-    <t>09-Out</t>
-  </si>
-  <si>
-    <t>11-Out</t>
-  </si>
-  <si>
-    <t>16-Out</t>
-  </si>
-  <si>
-    <t>18-Out</t>
-  </si>
-  <si>
-    <t>23-Out</t>
-  </si>
-  <si>
-    <t>25-Out</t>
-  </si>
-  <si>
-    <t>30-Out</t>
+    <t>&lt;strong&gt;4&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;strong&gt;Café com VC: Happy hour com investidores com teses de investimento em AI&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;strong&gt;Expansão de networking; Entendimento das teses de investimento dos VCs.&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;strong&gt;Encontro informal com investidores convidados.&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lições aprendidas com os investidores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expansão do networking. Entendimento das teses de investimento dos VCs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debate sobre os aprendizados durante happy hour com investidores.</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;6&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;strong&gt;Breakfest @ Corps: Café da Manhã com as corporações com demandas de AI.&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;strong&gt;Expansão do networking. Entendimento das demandas das corporações que podem ser solucionadas com AI.&lt;/strong&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;strong&gt;Encontro informal com executivos de inovação das corporações.&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lições aprendidas com as corporações. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expansão do networking. Entendimento das demandas das corporações que podem ser solucionadas com AI.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debate sobre os aprendizados durante o café da manhã com executivos de inovação das corporações. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que é impactado pela sua solução?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definição de oportunidades para empreender.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identificação de oportunidades. Formação de equipes com capacidades complementares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pré-aula: descrição de problema que pode ser resolvido com IA. Dinâmica para apresentação e seleção de problemas. Dinâmica de formação de equipes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desenvolvimento do lean canvas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desenvolvimento conceitual da solução, métricas, clientes entre outros componentes do lean canvas. Compreensão do tamanho a oportunidade. Melhor entendimento do problema. Melhor definição da solução. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desenvolvimento conceitual da solução, métricas, clientes entre outros componentes do lean canvas. Preparação do pitch problem-solution-opportunity</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;11&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;strong&gt;Apresentação do pitch Problem-Solution-Opportunity para investidores e corporações.&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;strong&gt;Compreensão do tamanho a oportunidade. Melhor entendimento do problema. Melhor definição da solução. &lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;strong&gt;Pitch para investidores mais feedbacks.&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lições aprendidas com o pitch para investidores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revisão do tamanho da oportunidade. Revisão do entendimento do problema. Revisão da solução. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debate sobre os aprendizados a partir do pitch para investidores. Revisão do lean canvas da oportunidade. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como desenvolver soluções de IA?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A solução imaginada é factível? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRISP-DM ou KDD ou reutilização de modelos ou serviços</t>
+  </si>
+  <si>
+    <t>MVP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infra-estrutura (github, nuvem)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testes automatizados</t>
   </si>
 </sst>
 </file>
@@ -150,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -164,10 +224,7 @@
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -681,15 +738,15 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col bestFit="1" customWidth="1" min="1" max="1" style="1" width="19.147857142857141"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" style="1" width="38.862142857142857"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" style="1" width="65.290714285714287"/>
+    <col customWidth="1" min="2" max="2" style="1" width="26.28125"/>
+    <col customWidth="1" min="3" max="3" style="1" width="31.00390625"/>
     <col bestFit="1" customWidth="1" min="4" max="4" style="1" width="85.719285714285704"/>
     <col bestFit="1" customWidth="1" min="5" max="5" style="1" width="120.7192857142857"/>
     <col bestFit="1" customWidth="1" min="6" max="6" style="1" width="13.005000000000001"/>
@@ -714,206 +771,280 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
+      <c r="A4" s="4">
+        <v>3</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
+    <row r="5" s="1" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
+      <c r="A6" s="3">
+        <v>5</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="63.75" customHeight="1">
       <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="63.75" customHeight="1">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="63.75" customHeight="1">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="63.75" customHeight="1">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A8" s="4" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="50.25" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A9" s="4" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A10" s="4" t="s">
+      <c r="B14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A11" s="4" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A17" s="4" t="s">
-        <v>22</v>
+      <c r="A17" s="4">
+        <v>16</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="2"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A18" s="4" t="s">
-        <v>23</v>
+      <c r="A18" s="3">
+        <v>17</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A19" s="4" t="s">
-        <v>24</v>
+      <c r="A19" s="3">
+        <v>18</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A20" s="4" t="s">
-        <v>25</v>
+      <c r="A20" s="4">
+        <v>19</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -922,8 +1053,8 @@
       <c r="F20" s="2"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A21" s="4" t="s">
-        <v>26</v>
+      <c r="A21" s="3">
+        <v>20</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -932,8 +1063,8 @@
       <c r="F21" s="2"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="44.25" customHeight="1">
-      <c r="A22" s="4" t="s">
-        <v>27</v>
+      <c r="A22" s="3">
+        <v>21</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -942,8 +1073,8 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A23" s="4" t="s">
-        <v>28</v>
+      <c r="A23" s="3">
+        <v>22</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -952,8 +1083,8 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A24" s="4" t="s">
-        <v>29</v>
+      <c r="A24" s="4">
+        <v>23</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -962,8 +1093,8 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="5">
-        <v>45231</v>
+      <c r="A25" s="3">
+        <v>24</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -972,8 +1103,8 @@
       <c r="F25" s="1"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="6">
-        <v>45236</v>
+      <c r="A26" s="3">
+        <v>25</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -982,8 +1113,8 @@
       <c r="F26" s="2"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="6">
-        <v>45238</v>
+      <c r="A27" s="4">
+        <v>26</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -992,8 +1123,8 @@
       <c r="F27" s="2"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="6">
-        <v>45243</v>
+      <c r="A28" s="3">
+        <v>27</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1002,7 +1133,9 @@
       <c r="F28" s="2"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="4"/>
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1010,7 +1143,9 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A30" s="4"/>
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1018,7 +1153,9 @@
       <c r="F30" s="2"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A31" s="4"/>
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1026,7 +1163,9 @@
       <c r="F31" s="2"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A32" s="2"/>
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1034,7 +1173,9 @@
       <c r="F32" s="1"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="2"/>
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1042,7 +1183,9 @@
       <c r="F33" s="1"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A34" s="2"/>
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1050,7 +1193,9 @@
       <c r="F34" s="1"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A35" s="2"/>
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1058,12 +1203,29 @@
       <c r="F35" s="1"/>
     </row>
     <row r="36" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A36" s="2"/>
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="1"/>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/plano-de-aulas.xlsx
+++ b/plano-de-aulas.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>Data</t>
   </si>
@@ -60,42 +60,45 @@
     <t xml:space="preserve">Entendimento da lógica de investimento de venture capital; Aprendendo a relacionar-se com investidores.</t>
   </si>
   <si>
+    <t xml:space="preserve">Debate com os estudantes sobre desenvolvimento de startups na visão dos investidores.</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;4&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;strong&gt;Café com VC: Happy hour com investidores com teses de investimento em AI&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;strong&gt;Expansão de networking; Entendimento das teses de investimento dos VCs.&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;strong&gt;Encontro informal com investidores convidados.&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lições aprendidas com os investidores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expansão do networking. Entendimento das teses de investimento dos VCs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debate sobre os aprendizados durante happy hour com investidores.</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;6&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;strong&gt;Breakfest @ Corps: Café da Manhã com as corporações com demandas de AI.&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;strong&gt;Expansão do networking. Entendimento das demandas das corporações que podem ser solucionadas com AI.&lt;/strong&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;strong&gt;Encontro informal com executivos de inovação das corporações.&lt;/strong&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>&lt;strong&gt;4&lt;/strong&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;strong&gt;Café com VC: Happy hour com investidores com teses de investimento em AI&lt;/strong&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;strong&gt;Expansão de networking; Entendimento das teses de investimento dos VCs.&lt;/strong&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;strong&gt;Encontro informal com investidores convidados.&lt;/strong&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lições aprendidas com os investidores.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expansão do networking. Entendimento das teses de investimento dos VCs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debate sobre os aprendizados durante happy hour com investidores.</t>
-  </si>
-  <si>
-    <t>&lt;strong&gt;6&lt;/strong&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;strong&gt;Breakfest @ Corps: Café da Manhã com as corporações com demandas de AI.&lt;/strong&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;strong&gt;Expansão do networking. Entendimento das demandas das corporações que podem ser solucionadas com AI.&lt;/strong&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;strong&gt;Encontro informal com executivos de inovação das corporações.&lt;/strong&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lições aprendidas com as corporações. </t>
   </si>
   <si>
@@ -150,19 +153,109 @@
     <t xml:space="preserve">Como desenvolver soluções de IA?</t>
   </si>
   <si>
-    <t xml:space="preserve">A solução imaginada é factível? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRISP-DM ou KDD ou reutilização de modelos ou serviços</t>
-  </si>
-  <si>
-    <t>MVP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infra-estrutura (github, nuvem)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testes automatizados</t>
+    <t xml:space="preserve">A solução imaginada é factível? Quais são os recursos necessários para o desenvolvimento da solução? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mapeamento modelo, fontes de informação e dados. Mapeamento da qualidade e disponibilidade dos dados. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exercício que envolve a identificação das informações necessárias para o desenvolvimento da solução, mapeamento das fontes disponíveis de dados, da qualidade destas fontes e real disponibilidade. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual o processo normalmente empregado no desenvolvimento de soluções de machine learning? CRISP-DM, KDD e reutilização de modelos e serviços</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRISP-DM, KDD, identificação de oportunidades para reutilização de modelos e utilização de serviços de IA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aula expositiva sobre os processos normalmente empregados no mercado e debate sobre como aplicar tais processos no desenvolvimento da solução de cada equipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produto Viável Mínimo (MVP). Por que usar este conceito? Como definir o seu MVP? A importância de um roadmap para a solução.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definição do MVP para cada solução. Elaboração inicial de um roadmap.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breve exposição sobre o conceito de MVP seguido por debate sobre a definição dos MVPs para cada solução. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infra-estrutura (github, nuvem). Processos de trabalho (branch, pull request)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infra-estutura do projeto configurada e processos de trabalho definidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debate sobre o uso de github, serviços em nuvem e processos de trabalho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processos, MVP, infra-estrutura na prática</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As equipes souberam definir o seu MVP? Fizeram o mapeamento de dados necessários? Estão com a infra-estrutura configurada?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checkpoint com todas as equipes para verificar os artefatos de projeto produzidos até o momento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testes automatizados, documentação e padronização de código</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cada equipe deverá definir como os testes automatizados, documentação e padronização de código serão feitos no escopo dos seus projetos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breve exposição sobre a importância de testes automatizados, documentação e padronização de código no escopo de startups. Apresentação de ferramentas que podem auxiliar as equipes nestas tarefas. Discussão entre as equipes para definir os padrões e ferramentas que serão adotados em cada equipe. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desenvolvimento da solução</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evolução do código gerado, do quadro de atividades, dos modelos de machine learning e das funcionalidades da solução.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desenvolvimento da solução.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;strong&gt;Sprint 1&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;strong&gt;Sprint review&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;strong&gt;Apresentação e debate sobre as entregas do sprint.&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;strong&gt;Sprint 2&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;strong&gt;Sprint 3&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;strong&gt;Sprint 4&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;strong&gt;Sprint 5&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;strong&gt;Demo day&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;strong&gt;Apresentação das soluções para a comunidade externa&lt;/strong&gt;</t>
   </si>
 </sst>
 </file>
@@ -210,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -226,6 +319,9 @@
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -738,7 +834,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -869,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="63.75" customHeight="1">
@@ -878,13 +974,13 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -893,16 +989,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -912,13 +1008,13 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -928,29 +1024,29 @@
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="50.25" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -960,13 +1056,13 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -975,35 +1071,49 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="41.25" customHeight="1">
+    <row r="15" s="1" customFormat="1" ht="78.75" customHeight="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="C15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="47.25" customHeight="1">
+    <row r="16" s="1" customFormat="1" ht="63.75" customHeight="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="45.75" customHeight="1">
@@ -1012,10 +1122,14 @@
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="41.25" customHeight="1">
@@ -1023,11 +1137,15 @@
         <v>17</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="C18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="41.25" customHeight="1">
@@ -1036,20 +1154,32 @@
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="49.5" customHeight="1">
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="56.25" customHeight="1">
@@ -1057,9 +1187,15 @@
         <v>20</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="44.25" customHeight="1">
@@ -1067,9 +1203,15 @@
         <v>21</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="34.5" customHeight="1">
@@ -1077,9 +1219,15 @@
         <v>22</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="37.5" customHeight="1">
@@ -1087,9 +1235,15 @@
         <v>23</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="18" customHeight="1">
@@ -1097,9 +1251,15 @@
         <v>24</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="18" customHeight="1">
@@ -1107,9 +1267,15 @@
         <v>25</v>
       </c>
       <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="18" customHeight="1">
@@ -1117,9 +1283,15 @@
         <v>26</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="C27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="18" customHeight="1">
@@ -1127,9 +1299,15 @@
         <v>27</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="18" customHeight="1">
@@ -1137,9 +1315,15 @@
         <v>28</v>
       </c>
       <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="C29" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="F29" s="2"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="18" customHeight="1">
@@ -1147,9 +1331,15 @@
         <v>29</v>
       </c>
       <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="18" customHeight="1">
@@ -1157,9 +1347,15 @@
         <v>30</v>
       </c>
       <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
+      <c r="C31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="18" customHeight="1">
@@ -1167,9 +1363,15 @@
         <v>31</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="F32" s="1"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="18" customHeight="1">
@@ -1177,9 +1379,15 @@
         <v>32</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="F33" s="1"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="18" customHeight="1">
@@ -1187,9 +1395,15 @@
         <v>33</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="F34" s="1"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="18" customHeight="1">
@@ -1197,9 +1411,15 @@
         <v>34</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="C35" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="F35" s="1"/>
     </row>
     <row r="36" s="1" customFormat="1" ht="18" customHeight="1">
@@ -1207,24 +1427,71 @@
         <v>35</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" ht="14.25">
+    <row r="37" ht="28.5">
       <c r="A37" s="5">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" ht="14.25">
+      <c r="C37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" ht="28.5">
       <c r="A38" s="5">
         <v>37</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="39" ht="14.25">
       <c r="A39" s="5">
         <v>38</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/plano-de-aulas.xlsx
+++ b/plano-de-aulas.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Data</t>
   </si>
@@ -30,6 +30,9 @@
     <t>Atividades</t>
   </si>
   <si>
+    <t xml:space="preserve">Atividade prévia</t>
+  </si>
+  <si>
     <t xml:space="preserve">O que é empreender?</t>
   </si>
   <si>
@@ -127,6 +130,15 @@
   </si>
   <si>
     <t xml:space="preserve">Desenvolvimento conceitual da solução, métricas, clientes entre outros componentes do lean canvas. Preparação do pitch problem-solution-opportunity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desenvolvimento do lean canvas + Pitch para Investidores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desenvolvimento conceitual da solução, métricas, clientes entre outros componentes do lean canvas. Compreensão do tamanho a oportunidade. Melhor entendimento do problema. Melhor definição da solução. E transformação desses aprendizados em uma apresentação para investidores (Pitch para Investidores)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desenvolvimento conceitual da solução, métricas, clientes entre outros componentes do lean canvas. Preparação do pitch problem-solution-opportunity. E início da elaboração do Pitch para Investidores. </t>
   </si>
   <si>
     <t>&lt;strong&gt;11&lt;/strong&gt;</t>
@@ -311,6 +323,9 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -319,9 +334,6 @@
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -834,7 +846,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -845,7 +857,7 @@
     <col customWidth="1" min="3" max="3" style="1" width="31.00390625"/>
     <col bestFit="1" customWidth="1" min="4" max="4" style="1" width="85.719285714285704"/>
     <col bestFit="1" customWidth="1" min="5" max="5" style="1" width="120.7192857142857"/>
-    <col bestFit="1" customWidth="1" min="6" max="6" style="1" width="13.005000000000001"/>
+    <col customWidth="1" min="6" max="6" style="1" width="17.00390625"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" customHeight="1">
@@ -864,561 +876,563 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="63.75" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="63.75" customHeight="1">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="63.75" customHeight="1">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="B9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="63.75" customHeight="1">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="50.25" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="B14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="78.75" customHeight="1">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="78.75" customHeight="1">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A17" s="4">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>57</v>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="4"/>
       <c r="C18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>63</v>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A20" s="4">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>67</v>
+      <c r="B20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>67</v>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="44.25" customHeight="1">
-      <c r="A22" s="3">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>67</v>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A24" s="4">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
+      <c r="E24" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="3">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="4">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="3" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="3">
-        <v>27</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4" t="s">
+      <c r="E28" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="3">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A30" s="4">
-        <v>29</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A31" s="3">
-        <v>30</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="3" t="s">
+      <c r="E31" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A32" s="3">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>67</v>
+        <v>79</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="F32" s="1"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="4">
+      <c r="A33" s="5">
         <v>32</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>67</v>
+        <v>79</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="F33" s="1"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A34" s="3">
+      <c r="A34" s="4">
         <v>33</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>67</v>
+        <v>79</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="F34" s="1"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A35" s="3">
+      <c r="A35" s="4">
         <v>34</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>70</v>
+      <c r="C35" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="F35" s="1"/>
     </row>
@@ -1428,70 +1442,70 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>67</v>
+        <v>81</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="F36" s="1"/>
     </row>
     <row r="37" ht="28.5">
-      <c r="A37" s="5">
+      <c r="A37" s="6">
         <v>36</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>67</v>
+        <v>81</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="38" ht="28.5">
-      <c r="A38" s="5">
+      <c r="A38" s="6">
         <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>67</v>
+        <v>81</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="39" ht="14.25">
-      <c r="A39" s="5">
+      <c r="A39" s="6">
         <v>38</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>70</v>
+      <c r="C39" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="40" ht="14.25">
-      <c r="A40" s="5">
+      <c r="A40" s="6">
         <v>39</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>80</v>
+      <c r="C40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/plano-de-aulas.xlsx
+++ b/plano-de-aulas.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>Data</t>
   </si>
@@ -33,6 +33,9 @@
     <t xml:space="preserve">Atividade prévia</t>
   </si>
   <si>
+    <t>6-Fev</t>
+  </si>
+  <si>
     <t xml:space="preserve">O que é empreender?</t>
   </si>
   <si>
@@ -45,6 +48,9 @@
     <t xml:space="preserve">Apresentação da disciplina; Bate papo com empreendedores do Insper.</t>
   </si>
   <si>
+    <t>8-Fev</t>
+  </si>
+  <si>
     <t xml:space="preserve">O que é empreender em IA?</t>
   </si>
   <si>
@@ -57,6 +63,15 @@
     <t xml:space="preserve">Pré-aula: pesquisa de startups de IA no Crunchbase e outras referências;  Desafio das startups mais promissoras; Desafio dos projetos de IA mais promissores.</t>
   </si>
   <si>
+    <t>13-Fev</t>
+  </si>
+  <si>
+    <t>Carnaval</t>
+  </si>
+  <si>
+    <t>15-Fev</t>
+  </si>
+  <si>
     <t xml:space="preserve">Desenvolvimento de startups na visão dos investidores</t>
   </si>
   <si>
@@ -66,7 +81,7 @@
     <t xml:space="preserve">Debate com os estudantes sobre desenvolvimento de startups na visão dos investidores.</t>
   </si>
   <si>
-    <t>&lt;strong&gt;4&lt;/strong&gt;</t>
+    <t>&lt;strong&gt;20-Fev&lt;/strong&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;strong&gt;Café com VC: Happy hour com investidores com teses de investimento em AI&lt;/strong&gt;</t>
@@ -78,6 +93,9 @@
     <t xml:space="preserve">&lt;strong&gt;Encontro informal com investidores convidados.&lt;/strong&gt;</t>
   </si>
   <si>
+    <t>22-Fev</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lições aprendidas com os investidores.</t>
   </si>
   <si>
@@ -87,7 +105,7 @@
     <t xml:space="preserve">Debate sobre os aprendizados durante happy hour com investidores.</t>
   </si>
   <si>
-    <t>&lt;strong&gt;6&lt;/strong&gt;</t>
+    <t>&lt;strong&gt;27-Fev&lt;/strong&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;strong&gt;Breakfest @ Corps: Café da Manhã com as corporações com demandas de AI.&lt;/strong&gt;</t>
@@ -102,6 +120,9 @@
     <t xml:space="preserve">  </t>
   </si>
   <si>
+    <t>29-Fev</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lições aprendidas com as corporações. </t>
   </si>
   <si>
@@ -111,6 +132,9 @@
     <t xml:space="preserve">Debate sobre os aprendizados durante o café da manhã com executivos de inovação das corporações. </t>
   </si>
   <si>
+    <t>05-Março</t>
+  </si>
+  <si>
     <t xml:space="preserve">O que é impactado pela sua solução?</t>
   </si>
   <si>
@@ -123,6 +147,9 @@
     <t xml:space="preserve">Pré-aula: descrição de problema que pode ser resolvido com IA. Dinâmica para apresentação e seleção de problemas. Dinâmica de formação de equipes.</t>
   </si>
   <si>
+    <t>07-Março</t>
+  </si>
+  <si>
     <t xml:space="preserve">Desenvolvimento do lean canvas.</t>
   </si>
   <si>
@@ -132,6 +159,9 @@
     <t xml:space="preserve">Desenvolvimento conceitual da solução, métricas, clientes entre outros componentes do lean canvas. Preparação do pitch problem-solution-opportunity</t>
   </si>
   <si>
+    <t>12-Março</t>
+  </si>
+  <si>
     <t xml:space="preserve">Desenvolvimento do lean canvas + Pitch para Investidores</t>
   </si>
   <si>
@@ -141,7 +171,7 @@
     <t xml:space="preserve">Desenvolvimento conceitual da solução, métricas, clientes entre outros componentes do lean canvas. Preparação do pitch problem-solution-opportunity. E início da elaboração do Pitch para Investidores. </t>
   </si>
   <si>
-    <t>&lt;strong&gt;11&lt;/strong&gt;</t>
+    <t>&lt;strong&gt;14-Março&lt;/strong&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;strong&gt;Apresentação do pitch Problem-Solution-Opportunity para investidores e corporações.&lt;/strong&gt;</t>
@@ -153,6 +183,9 @@
     <t xml:space="preserve">&lt;strong&gt;Pitch para investidores mais feedbacks.&lt;/strong&gt;</t>
   </si>
   <si>
+    <t>19-Março</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lições aprendidas com o pitch para investidores</t>
   </si>
   <si>
@@ -162,6 +195,9 @@
     <t xml:space="preserve">Debate sobre os aprendizados a partir do pitch para investidores. Revisão do lean canvas da oportunidade. </t>
   </si>
   <si>
+    <t>21-Março</t>
+  </si>
+  <si>
     <t xml:space="preserve">Como desenvolver soluções de IA?</t>
   </si>
   <si>
@@ -174,6 +210,9 @@
     <t xml:space="preserve">Exercício que envolve a identificação das informações necessárias para o desenvolvimento da solução, mapeamento das fontes disponíveis de dados, da qualidade destas fontes e real disponibilidade. </t>
   </si>
   <si>
+    <t>26-Março</t>
+  </si>
+  <si>
     <t xml:space="preserve">Qual o processo normalmente empregado no desenvolvimento de soluções de machine learning? CRISP-DM, KDD e reutilização de modelos e serviços</t>
   </si>
   <si>
@@ -183,6 +222,18 @@
     <t xml:space="preserve">Aula expositiva sobre os processos normalmente empregados no mercado e debate sobre como aplicar tais processos no desenvolvimento da solução de cada equipe</t>
   </si>
   <si>
+    <t>28-Março</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avaliação intermediária - não teremos aula</t>
+  </si>
+  <si>
+    <t>02-Abril</t>
+  </si>
+  <si>
+    <t>04-Abril</t>
+  </si>
+  <si>
     <t xml:space="preserve">Produto Viável Mínimo (MVP). Por que usar este conceito? Como definir o seu MVP? A importância de um roadmap para a solução.</t>
   </si>
   <si>
@@ -192,6 +243,9 @@
     <t xml:space="preserve">Breve exposição sobre o conceito de MVP seguido por debate sobre a definição dos MVPs para cada solução. </t>
   </si>
   <si>
+    <t>09-Abril</t>
+  </si>
+  <si>
     <t xml:space="preserve">Infra-estrutura (github, nuvem). Processos de trabalho (branch, pull request)</t>
   </si>
   <si>
@@ -201,6 +255,9 @@
     <t xml:space="preserve">Debate sobre o uso de github, serviços em nuvem e processos de trabalho.</t>
   </si>
   <si>
+    <t>11-Abril</t>
+  </si>
+  <si>
     <t xml:space="preserve">Processos, MVP, infra-estrutura na prática</t>
   </si>
   <si>
@@ -210,6 +267,9 @@
     <t xml:space="preserve">Checkpoint com todas as equipes para verificar os artefatos de projeto produzidos até o momento.</t>
   </si>
   <si>
+    <t>16-Abril</t>
+  </si>
+  <si>
     <t xml:space="preserve">Testes automatizados, documentação e padronização de código</t>
   </si>
   <si>
@@ -219,6 +279,9 @@
     <t xml:space="preserve">Breve exposição sobre a importância de testes automatizados, documentação e padronização de código no escopo de startups. Apresentação de ferramentas que podem auxiliar as equipes nestas tarefas. Discussão entre as equipes para definir os padrões e ferramentas que serão adotados em cada equipe. </t>
   </si>
   <si>
+    <t>18-Abril</t>
+  </si>
+  <si>
     <t xml:space="preserve">Desenvolvimento da solução</t>
   </si>
   <si>
@@ -231,6 +294,15 @@
     <t xml:space="preserve">Desenvolvimento da solução.</t>
   </si>
   <si>
+    <t>23-Abril</t>
+  </si>
+  <si>
+    <t>25-Abril</t>
+  </si>
+  <si>
+    <t>30-Abril</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;strong&gt;Sprint 1&lt;/strong&gt;</t>
   </si>
   <si>
@@ -240,28 +312,49 @@
     <t xml:space="preserve">&lt;strong&gt;Apresentação e debate sobre as entregas do sprint.&lt;/strong&gt;</t>
   </si>
   <si>
+    <t>02-Maio</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sprint 2</t>
   </si>
   <si>
+    <t>07-Maio</t>
+  </si>
+  <si>
+    <t>09-Maio</t>
+  </si>
+  <si>
+    <t>14-Maio</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;strong&gt;Sprint 2&lt;/strong&gt;</t>
   </si>
   <si>
+    <t>16-Maio</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sprint 3</t>
   </si>
   <si>
+    <t>21-Maio</t>
+  </si>
+  <si>
+    <t>23-Maio</t>
+  </si>
+  <si>
+    <t>28-Maio</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;strong&gt;Sprint 3&lt;/strong&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Sprint 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;strong&gt;Sprint 4&lt;/strong&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;strong&gt;Sprint 5&lt;/strong&gt;</t>
+    <t>30-Maio</t>
+  </si>
+  <si>
+    <t>Feriado</t>
+  </si>
+  <si>
+    <t>04-Junho</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;strong&gt;Demo day&lt;/strong&gt;</t>
@@ -323,14 +416,14 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -846,7 +939,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -876,637 +969,631 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="4" t="s">
+    <row r="4" s="1" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="49.5" customHeight="1">
+    <row r="5" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="E5" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="4" t="s">
+    <row r="6" s="1" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="D6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="4" t="s">
+    <row r="7" s="1" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="E7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="A8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="D8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>38</v>
+      <c r="A10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>41</v>
+    <row r="11" s="1" customFormat="1" ht="63.75" customHeight="1">
+      <c r="A11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
+    <row r="12" s="1" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>48</v>
+    <row r="13" s="1" customFormat="1" ht="50.25" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>52</v>
+      <c r="A14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="78.75" customHeight="1">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>55</v>
+    <row r="15" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>58</v>
+    <row r="16" s="1" customFormat="1" ht="78.75" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A17" s="5">
-        <v>16</v>
+    <row r="17" s="1" customFormat="1" ht="78.75" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>61</v>
+      <c r="C17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A18" s="4">
-        <v>17</v>
+    <row r="18" s="1" customFormat="1" ht="78.75" customHeight="1">
+      <c r="A18" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>64</v>
+        <v>70</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>67</v>
+    <row r="19" s="1" customFormat="1" ht="63.75" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>71</v>
+    <row r="20" s="1" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A21" s="4">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>71</v>
+    <row r="21" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="44.25" customHeight="1">
-      <c r="A22" s="4">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>71</v>
+    <row r="22" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A23" s="4">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>74</v>
+    <row r="23" s="1" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A24" s="5">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>71</v>
+    <row r="24" s="1" customFormat="1" ht="56.25" customHeight="1">
+      <c r="A24" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="4">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="4">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>71</v>
+    <row r="25" s="1" customFormat="1" ht="44.25" customHeight="1">
+      <c r="A25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A26" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="5">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>74</v>
+    <row r="27" s="1" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="4">
-        <v>27</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" s="2"/>
+      <c r="A28" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="1"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="4">
-        <v>28</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>71</v>
+      <c r="A29" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="F29" s="2"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A30" s="5">
-        <v>29</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>71</v>
+      <c r="A30" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A31" s="4">
-        <v>30</v>
-      </c>
-      <c r="B31" s="5"/>
+      <c r="A31" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>74</v>
+        <v>106</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A32" s="4">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F32" s="1"/>
+      <c r="A32" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="2"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="5">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F33" s="1"/>
+      <c r="A33" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33" s="2"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A34" s="4">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F34" s="1"/>
+      <c r="A34" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="2"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A35" s="4">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A36" s="2">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>71</v>
+      <c r="A35" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="A36" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" ht="28.5">
-      <c r="A37" s="6">
-        <v>36</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" ht="28.5">
-      <c r="A38" s="6">
-        <v>37</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>71</v>
-      </c>
+    <row r="37" ht="14.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
     </row>
     <row r="39" ht="14.25">
-      <c r="A39" s="6">
-        <v>38</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
     </row>
     <row r="40" ht="14.25">
-      <c r="A40" s="6">
-        <v>39</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" ht="14.25">
+      <c r="A41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" ht="14.25">
+      <c r="A42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" ht="14.25">
+      <c r="A43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/plano-de-aulas.xlsx
+++ b/plano-de-aulas.xlsx
@@ -45,7 +45,7 @@
     <t xml:space="preserve">Empreendedorismo é um comportamento para o desenvolvimento de pessoas, de organizações e do mundo; Aproveite as oportunidades que serão oferecidas no curso</t>
   </si>
   <si>
-    <t xml:space="preserve">Apresentação da disciplina; Bate papo com empreendedores do Insper.</t>
+    <t xml:space="preserve">Apresentação da disciplina.</t>
   </si>
   <si>
     <t>8-Fev</t>
@@ -225,7 +225,7 @@
     <t>28-Março</t>
   </si>
   <si>
-    <t xml:space="preserve">Avaliação intermediária - não teremos aula</t>
+    <t xml:space="preserve">Avaliação intermediária</t>
   </si>
   <si>
     <t>02-Abril</t>
@@ -939,7 +939,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/plano-de-aulas.xlsx
+++ b/plano-de-aulas.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Data</t>
   </si>
@@ -201,31 +201,34 @@
     <t xml:space="preserve">Como desenvolver soluções de IA?</t>
   </si>
   <si>
-    <t xml:space="preserve">A solução imaginada é factível? Quais são os recursos necessários para o desenvolvimento da solução? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mapeamento modelo, fontes de informação e dados. Mapeamento da qualidade e disponibilidade dos dados. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exercício que envolve a identificação das informações necessárias para o desenvolvimento da solução, mapeamento das fontes disponíveis de dados, da qualidade destas fontes e real disponibilidade. </t>
+    <t xml:space="preserve">A solução imaginada é factível? Quais são os recursos necessários para o desenvolvimento da solução? Qual o processo normalmente empregado no desenvolvimento de soluções de machine learning? CRISP-DM, KDD e reutilização de modelos e serviços.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mapeamento modelo, fontes de informação e dados. Mapeamento da qualidade e disponibilidade dos dados. CRISP-DM, KDD, identificação de oportunidades para reutilização de modelos e utilização de serviços de IA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exercício que envolve a identificação das informações necessárias para o desenvolvimento da solução, mapeamento das fontes disponíveis de dados, da qualidade destas fontes e real disponibilidade. Aula expositiva sobre os processos normalmente empregados no mercado e debate sobre como aplicar tais processos no desenvolvimento da solução de cada equipe.</t>
   </si>
   <si>
     <t>26-Março</t>
   </si>
   <si>
-    <t xml:space="preserve">Qual o processo normalmente empregado no desenvolvimento de soluções de machine learning? CRISP-DM, KDD e reutilização de modelos e serviços</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRISP-DM, KDD, identificação de oportunidades para reutilização de modelos e utilização de serviços de IA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aula expositiva sobre os processos normalmente empregados no mercado e debate sobre como aplicar tais processos no desenvolvimento da solução de cada equipe</t>
+    <t xml:space="preserve">Ética em IA. O que são soluções éticas e o que não são soluções éticas? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como desenvolver soluções baseadas em machine learning com princípios éticos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aula expositiva sobre ética em IA seguido de debate sobre como aplicar tais conceitos no desenvolvimento da solução de cada equipe. </t>
   </si>
   <si>
     <t>28-Março</t>
   </si>
   <si>
-    <t xml:space="preserve">Avaliação intermediária</t>
+    <t xml:space="preserve">&lt;strong&gt;Avaliação intermediária&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;strong&gt;Avaliação intermediária. Apresentação dos projetos em andamento para o Centro de Empreendedorismo do Insper.&lt;/strong&gt;</t>
   </si>
   <si>
     <t>02-Abril</t>
@@ -234,118 +237,97 @@
     <t>04-Abril</t>
   </si>
   <si>
-    <t xml:space="preserve">Produto Viável Mínimo (MVP). Por que usar este conceito? Como definir o seu MVP? A importância de um roadmap para a solução.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definição do MVP para cada solução. Elaboração inicial de um roadmap.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Breve exposição sobre o conceito de MVP seguido por debate sobre a definição dos MVPs para cada solução. </t>
+    <t xml:space="preserve">Produto Viável Mínimo (MVP). Por que usar este conceito? Como definir o seu MVP? A importância de um roadmap para a solução. Infra-estrutura (github, nuvem). Processos de trabalho (branch, pull request). Testes automatizados, documentação e padronização de código.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definição do MVP para cada solução. Elaboração inicial de um roadmap. Infra-estutura do projeto configurada e processos de trabalho definidos. Cada equipe deverá definir como os testes automatizados, documentação e padronização de código serão feitos no escopo dos seus projetos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breve exposição sobre o conceito de MVP seguido por debate sobre a definição dos MVPs para cada solução. Debate sobre o uso de github, serviços em nuvem e processos de trabalho. Breve exposição sobre a importância de testes automatizados, documentação e padronização de código no escopo de startups. Apresentação de ferramentas que podem auxiliar as equipes nestas tarefas. Discussão entre as equipes para definir os padrões e ferramentas que serão adotados em cada equipe. </t>
   </si>
   <si>
     <t>09-Abril</t>
   </si>
   <si>
-    <t xml:space="preserve">Infra-estrutura (github, nuvem). Processos de trabalho (branch, pull request)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infra-estutura do projeto configurada e processos de trabalho definidos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debate sobre o uso de github, serviços em nuvem e processos de trabalho.</t>
+    <t xml:space="preserve">Desenvolvimento da solução</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evolução do código gerado, do quadro de atividades, dos modelos de machine learning e das funcionalidades da solução.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desenvolvimento da solução.</t>
   </si>
   <si>
     <t>11-Abril</t>
   </si>
   <si>
-    <t xml:space="preserve">Processos, MVP, infra-estrutura na prática</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As equipes souberam definir o seu MVP? Fizeram o mapeamento de dados necessários? Estão com a infra-estrutura configurada?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checkpoint com todas as equipes para verificar os artefatos de projeto produzidos até o momento.</t>
-  </si>
-  <si>
     <t>16-Abril</t>
   </si>
   <si>
-    <t xml:space="preserve">Testes automatizados, documentação e padronização de código</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cada equipe deverá definir como os testes automatizados, documentação e padronização de código serão feitos no escopo dos seus projetos. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Breve exposição sobre a importância de testes automatizados, documentação e padronização de código no escopo de startups. Apresentação de ferramentas que podem auxiliar as equipes nestas tarefas. Discussão entre as equipes para definir os padrões e ferramentas que serão adotados em cada equipe. </t>
-  </si>
-  <si>
     <t>18-Abril</t>
   </si>
   <si>
-    <t xml:space="preserve">Desenvolvimento da solução</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evolução do código gerado, do quadro de atividades, dos modelos de machine learning e das funcionalidades da solução.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvimento da solução.</t>
+    <t xml:space="preserve">&lt;strong&gt;Sprint 1&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;strong&gt;Sprint review&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;strong&gt;Apresentação e debate sobre as entregas do sprint.&lt;/strong&gt;</t>
   </si>
   <si>
     <t>23-Abril</t>
   </si>
   <si>
+    <t xml:space="preserve">Sprint 2</t>
+  </si>
+  <si>
     <t>25-Abril</t>
   </si>
   <si>
     <t>30-Abril</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;strong&gt;Sprint 1&lt;/strong&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;strong&gt;Sprint review&lt;/strong&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;strong&gt;Apresentação e debate sobre as entregas do sprint.&lt;/strong&gt;</t>
-  </si>
-  <si>
     <t>02-Maio</t>
   </si>
   <si>
-    <t xml:space="preserve">Sprint 2</t>
+    <t xml:space="preserve">&lt;strong&gt;Sprint 2&lt;/strong&gt;</t>
   </si>
   <si>
     <t>07-Maio</t>
   </si>
   <si>
+    <t xml:space="preserve">Sprint 3</t>
+  </si>
+  <si>
     <t>09-Maio</t>
   </si>
   <si>
     <t>14-Maio</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;strong&gt;Sprint 2&lt;/strong&gt;</t>
-  </si>
-  <si>
     <t>16-Maio</t>
   </si>
   <si>
-    <t xml:space="preserve">Sprint 3</t>
+    <t xml:space="preserve">&lt;strong&gt;Sprint 3&lt;/strong&gt;</t>
   </si>
   <si>
     <t>21-Maio</t>
   </si>
   <si>
+    <t xml:space="preserve">Sprint 4</t>
+  </si>
+  <si>
     <t>23-Maio</t>
   </si>
   <si>
     <t>28-Maio</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;strong&gt;Sprint 3&lt;/strong&gt;</t>
+    <t xml:space="preserve">&lt;strong&gt;Sprint 4&lt;/strong&gt;</t>
   </si>
   <si>
     <t>30-Maio</t>
@@ -939,7 +921,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1212,13 +1194,13 @@
         <v>65</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="5" t="s">
         <v>68</v>
       </c>
       <c r="F16" s="2"/>
@@ -1231,17 +1213,17 @@
       <c r="C17" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>70</v>
+      <c r="E17" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="78.75" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="1" t="s">
@@ -1251,297 +1233,296 @@
         <v>70</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="63.75" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="45.75" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="C20" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="41.25" customHeight="1">
       <c r="A21" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="1" t="s">
+      <c r="E21" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="41.25" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="49.5" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="56.25" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="44.25" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A26" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A26" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A27" s="5" t="s">
-        <v>99</v>
+      <c r="A27" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B28" s="3"/>
-      <c r="C28" s="3" t="s">
-        <v>100</v>
+      <c r="C28" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F28" s="1"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B29" s="3"/>
-      <c r="C29" s="3" t="s">
-        <v>100</v>
+      <c r="C29" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F29" s="2"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B30" s="4"/>
-      <c r="C30" s="3" t="s">
-        <v>104</v>
+      <c r="C30" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B31" s="4"/>
-      <c r="C31" s="4" t="s">
-        <v>106</v>
+      <c r="C31" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F33" s="2"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F34" s="2"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F35" s="2"/>
     </row>
     <row r="36" ht="14.25">
       <c r="A36" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F36" s="1"/>
     </row>

--- a/plano-de-aulas.xlsx
+++ b/plano-de-aulas.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>Data</t>
   </si>
@@ -325,18 +325,6 @@
   </si>
   <si>
     <t>28-Maio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;strong&gt;Sprint 4&lt;/strong&gt;</t>
-  </si>
-  <si>
-    <t>30-Maio</t>
-  </si>
-  <si>
-    <t>Feriado</t>
-  </si>
-  <si>
-    <t>04-Junho</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;strong&gt;Demo day&lt;/strong&gt;</t>
@@ -390,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -403,9 +391,6 @@
     </xf>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -921,7 +906,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -995,7 +980,7 @@
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
@@ -1011,7 +996,9 @@
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
@@ -1027,7 +1014,9 @@
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
@@ -1043,7 +1032,9 @@
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="C7" s="3" t="s">
         <v>27</v>
       </c>
@@ -1059,7 +1050,9 @@
       <c r="A8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="C8" s="3" t="s">
         <v>31</v>
       </c>
@@ -1077,7 +1070,9 @@
       <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="C9" s="3" t="s">
         <v>36</v>
       </c>
@@ -1111,7 +1106,9 @@
       <c r="A11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="C11" s="3" t="s">
         <v>45</v>
       </c>
@@ -1127,7 +1124,9 @@
       <c r="A12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="C12" s="3" t="s">
         <v>49</v>
       </c>
@@ -1143,7 +1142,9 @@
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="C13" s="3" t="s">
         <v>53</v>
       </c>
@@ -1159,7 +1160,9 @@
       <c r="A14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="C14" s="3" t="s">
         <v>57</v>
       </c>
@@ -1193,14 +1196,16 @@
       <c r="A16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F16" s="2"/>
@@ -1209,14 +1214,16 @@
       <c r="A17" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="1" t="s">
         <v>71</v>
       </c>
       <c r="F17" s="2"/>
@@ -1225,7 +1232,9 @@
       <c r="A18" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>70</v>
       </c>
@@ -1241,7 +1250,9 @@
       <c r="A19" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="C19" s="2" t="s">
         <v>74</v>
       </c>
@@ -1275,7 +1286,9 @@
       <c r="A21" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="C21" s="3" t="s">
         <v>79</v>
       </c>
@@ -1291,7 +1304,9 @@
       <c r="A22" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="C22" s="3" t="s">
         <v>79</v>
       </c>
@@ -1307,6 +1322,9 @@
       <c r="A23" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="B23" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="C23" s="3" t="s">
         <v>85</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="A24" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="C24" s="3" t="s">
         <v>89</v>
       </c>
@@ -1338,7 +1358,9 @@
       <c r="A25" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="C25" s="3" t="s">
         <v>89</v>
       </c>
@@ -1354,7 +1376,9 @@
       <c r="A26" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="C26" s="3" t="s">
         <v>89</v>
       </c>
@@ -1370,7 +1394,9 @@
       <c r="A27" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="C27" s="3" t="s">
         <v>93</v>
       </c>
@@ -1386,7 +1412,9 @@
       <c r="A28" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="C28" s="4" t="s">
         <v>95</v>
       </c>
@@ -1402,7 +1430,9 @@
       <c r="A29" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="C29" s="4" t="s">
         <v>95</v>
       </c>
@@ -1418,7 +1448,9 @@
       <c r="A30" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B30" s="4"/>
+      <c r="B30" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="C30" s="4" t="s">
         <v>95</v>
       </c>
@@ -1434,7 +1466,9 @@
       <c r="A31" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="4"/>
+      <c r="B31" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="C31" s="3" t="s">
         <v>99</v>
       </c>
@@ -1450,7 +1484,9 @@
       <c r="A32" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="C32" s="4" t="s">
         <v>101</v>
       </c>
@@ -1466,7 +1502,9 @@
       <c r="A33" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="4"/>
+      <c r="B33" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="C33" s="4" t="s">
         <v>101</v>
       </c>
@@ -1482,53 +1520,36 @@
       <c r="A34" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="3" t="s">
+      <c r="B34" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>87</v>
+      <c r="D34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="F34" s="2"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A35" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>106</v>
-      </c>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" ht="14.25">
-      <c r="A36" s="6" t="s">
-        <v>107</v>
-      </c>
+      <c r="A36" s="5"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="F36" s="1"/>
     </row>
     <row r="37" ht="14.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
+      <c r="B37" s="3"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>

--- a/plano-de-aulas.xlsx
+++ b/plano-de-aulas.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="106">
   <si>
     <t>Data</t>
   </si>
@@ -24,43 +25,43 @@
     <t>Conteúdo</t>
   </si>
   <si>
-    <t xml:space="preserve">Evidências de Aprendizado</t>
+    <t>Evidências de Aprendizado</t>
   </si>
   <si>
     <t>Atividades</t>
   </si>
   <si>
-    <t xml:space="preserve">Atividade prévia</t>
+    <t>Atividade prévia</t>
   </si>
   <si>
     <t>6-Fev</t>
   </si>
   <si>
-    <t xml:space="preserve">O que é empreender?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empreendedorismo para a vida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empreendedorismo é um comportamento para o desenvolvimento de pessoas, de organizações e do mundo; Aproveite as oportunidades que serão oferecidas no curso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apresentação da disciplina.</t>
+    <t>O que é empreender?</t>
+  </si>
+  <si>
+    <t>Empreendedorismo para a vida</t>
+  </si>
+  <si>
+    <t>Empreendedorismo é um comportamento para o desenvolvimento de pessoas, de organizações e do mundo; Aproveite as oportunidades que serão oferecidas no curso</t>
+  </si>
+  <si>
+    <t>Apresentação da disciplina.</t>
   </si>
   <si>
     <t>8-Fev</t>
   </si>
   <si>
-    <t xml:space="preserve">O que é empreender em IA?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impactos atuais e futuros da IA; Visão geral das startups de IA; Projetos de pesquisa promissores de IA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Como entender a situação atual e futura da IA e suas aplicações</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pré-aula: pesquisa de startups de IA no Crunchbase e outras referências;  Desafio das startups mais promissoras; Desafio dos projetos de IA mais promissores.</t>
+    <t>O que é empreender em IA?</t>
+  </si>
+  <si>
+    <t>Impactos atuais e futuros da IA; Visão geral das startups de IA; Projetos de pesquisa promissores de IA</t>
+  </si>
+  <si>
+    <t>Como entender a situação atual e futura da IA e suas aplicações</t>
+  </si>
+  <si>
+    <t>Pré-aula: pesquisa de startups de IA no Crunchbase e outras referências;  Desafio das startups mais promissoras; Desafio dos projetos de IA mais promissores.</t>
   </si>
   <si>
     <t>13-Fev</t>
@@ -72,49 +73,49 @@
     <t>15-Fev</t>
   </si>
   <si>
-    <t xml:space="preserve">Desenvolvimento de startups na visão dos investidores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entendimento da lógica de investimento de venture capital; Aprendendo a relacionar-se com investidores.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debate com os estudantes sobre desenvolvimento de startups na visão dos investidores.</t>
+    <t>Desenvolvimento de startups na visão dos investidores</t>
+  </si>
+  <si>
+    <t>Entendimento da lógica de investimento de venture capital; Aprendendo a relacionar-se com investidores.</t>
+  </si>
+  <si>
+    <t>Debate com os estudantes sobre desenvolvimento de startups na visão dos investidores.</t>
   </si>
   <si>
     <t>&lt;strong&gt;20-Fev&lt;/strong&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;strong&gt;Café com VC: Happy hour com investidores com teses de investimento em AI&lt;/strong&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;strong&gt;Expansão de networking; Entendimento das teses de investimento dos VCs.&lt;/strong&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;strong&gt;Encontro informal com investidores convidados.&lt;/strong&gt;</t>
+    <t>&lt;strong&gt;Café com VC: Happy hour com investidores com teses de investimento em AI&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Expansão de networking; Entendimento das teses de investimento dos VCs.&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Encontro informal com investidores convidados.&lt;/strong&gt;</t>
   </si>
   <si>
     <t>22-Fev</t>
   </si>
   <si>
-    <t xml:space="preserve">Lições aprendidas com os investidores.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expansão do networking. Entendimento das teses de investimento dos VCs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debate sobre os aprendizados durante happy hour com investidores.</t>
+    <t>Lições aprendidas com os investidores.</t>
+  </si>
+  <si>
+    <t>Expansão do networking. Entendimento das teses de investimento dos VCs.</t>
+  </si>
+  <si>
+    <t>Debate sobre os aprendizados durante happy hour com investidores.</t>
   </si>
   <si>
     <t>&lt;strong&gt;27-Fev&lt;/strong&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;strong&gt;Breakfest @ Corps: Café da Manhã com as corporações com demandas de AI.&lt;/strong&gt;</t>
+    <t>&lt;strong&gt;Breakfest @ Corps: Café da Manhã com as corporações com demandas de AI.&lt;/strong&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;strong&gt;Expansão do networking. Entendimento das demandas das corporações que podem ser solucionadas com AI.&lt;/strong&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;strong&gt;Encontro informal com executivos de inovação das corporações.&lt;/strong&gt;</t>
+    <t>&lt;strong&gt;Encontro informal com executivos de inovação das corporações.&lt;/strong&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -126,7 +127,7 @@
     <t xml:space="preserve">Lições aprendidas com as corporações. </t>
   </si>
   <si>
-    <t xml:space="preserve">Expansão do networking. Entendimento das demandas das corporações que podem ser solucionadas com AI.</t>
+    <t>Expansão do networking. Entendimento das demandas das corporações que podem ser solucionadas com AI.</t>
   </si>
   <si>
     <t xml:space="preserve">Debate sobre os aprendizados durante o café da manhã com executivos de inovação das corporações. </t>
@@ -135,37 +136,37 @@
     <t>05-Março</t>
   </si>
   <si>
-    <t xml:space="preserve">O que é impactado pela sua solução?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definição de oportunidades para empreender.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identificação de oportunidades. Formação de equipes com capacidades complementares.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pré-aula: descrição de problema que pode ser resolvido com IA. Dinâmica para apresentação e seleção de problemas. Dinâmica de formação de equipes.</t>
+    <t>O que é impactado pela sua solução?</t>
+  </si>
+  <si>
+    <t>Definição de oportunidades para empreender.</t>
+  </si>
+  <si>
+    <t>Identificação de oportunidades. Formação de equipes com capacidades complementares.</t>
+  </si>
+  <si>
+    <t>Pré-aula: descrição de problema que pode ser resolvido com IA. Dinâmica para apresentação e seleção de problemas. Dinâmica de formação de equipes.</t>
   </si>
   <si>
     <t>07-Março</t>
   </si>
   <si>
-    <t xml:space="preserve">Desenvolvimento do lean canvas.</t>
+    <t>Desenvolvimento do lean canvas.</t>
   </si>
   <si>
     <t xml:space="preserve">Desenvolvimento conceitual da solução, métricas, clientes entre outros componentes do lean canvas. Compreensão do tamanho a oportunidade. Melhor entendimento do problema. Melhor definição da solução. </t>
   </si>
   <si>
-    <t xml:space="preserve">Desenvolvimento conceitual da solução, métricas, clientes entre outros componentes do lean canvas. Preparação do pitch problem-solution-opportunity</t>
+    <t>Desenvolvimento conceitual da solução, métricas, clientes entre outros componentes do lean canvas. Preparação do pitch problem-solution-opportunity</t>
   </si>
   <si>
     <t>12-Março</t>
   </si>
   <si>
-    <t xml:space="preserve">Desenvolvimento do lean canvas + Pitch para Investidores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvimento conceitual da solução, métricas, clientes entre outros componentes do lean canvas. Compreensão do tamanho a oportunidade. Melhor entendimento do problema. Melhor definição da solução. E transformação desses aprendizados em uma apresentação para investidores (Pitch para Investidores)</t>
+    <t>Desenvolvimento do lean canvas + Pitch para Investidores</t>
+  </si>
+  <si>
+    <t>Desenvolvimento conceitual da solução, métricas, clientes entre outros componentes do lean canvas. Compreensão do tamanho a oportunidade. Melhor entendimento do problema. Melhor definição da solução. E transformação desses aprendizados em uma apresentação para investidores (Pitch para Investidores)</t>
   </si>
   <si>
     <t xml:space="preserve">Desenvolvimento conceitual da solução, métricas, clientes entre outros componentes do lean canvas. Preparação do pitch problem-solution-opportunity. E início da elaboração do Pitch para Investidores. </t>
@@ -174,19 +175,19 @@
     <t>&lt;strong&gt;14-Março&lt;/strong&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;strong&gt;Apresentação do pitch Problem-Solution-Opportunity para investidores e corporações.&lt;/strong&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;strong&gt;Compreensão do tamanho a oportunidade. Melhor entendimento do problema. Melhor definição da solução. &lt;/strong&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;strong&gt;Pitch para investidores mais feedbacks.&lt;/strong&gt;</t>
+    <t>&lt;strong&gt;Apresentação do pitch Problem-Solution-Opportunity para investidores e corporações.&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Compreensão do tamanho a oportunidade. Melhor entendimento do problema. Melhor definição da solução. &lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Pitch para investidores mais feedbacks.&lt;/strong&gt;</t>
   </si>
   <si>
     <t>19-Março</t>
   </si>
   <si>
-    <t xml:space="preserve">Lições aprendidas com o pitch para investidores</t>
+    <t>Lições aprendidas com o pitch para investidores</t>
   </si>
   <si>
     <t xml:space="preserve">Revisão do tamanho da oportunidade. Revisão do entendimento do problema. Revisão da solução. </t>
@@ -198,37 +199,37 @@
     <t>21-Março</t>
   </si>
   <si>
-    <t xml:space="preserve">Como desenvolver soluções de IA?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A solução imaginada é factível? Quais são os recursos necessários para o desenvolvimento da solução? Qual o processo normalmente empregado no desenvolvimento de soluções de machine learning? CRISP-DM, KDD e reutilização de modelos e serviços.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mapeamento modelo, fontes de informação e dados. Mapeamento da qualidade e disponibilidade dos dados. CRISP-DM, KDD, identificação de oportunidades para reutilização de modelos e utilização de serviços de IA.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exercício que envolve a identificação das informações necessárias para o desenvolvimento da solução, mapeamento das fontes disponíveis de dados, da qualidade destas fontes e real disponibilidade. Aula expositiva sobre os processos normalmente empregados no mercado e debate sobre como aplicar tais processos no desenvolvimento da solução de cada equipe.</t>
+    <t>Como desenvolver soluções de IA?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definição de persona. Definição do Produto Viável Mínimo (MVP). Por que usar os conceitos de persona e MVP? </t>
+  </si>
+  <si>
+    <t>As equipes irão definir as personas para as suas startups e a primeira iteração do MVP.</t>
+  </si>
+  <si>
+    <t>Apresentação e discussão de casos. Equipes irão definir as personas e a primeira iteração do MVP.</t>
   </si>
   <si>
     <t>26-Março</t>
   </si>
   <si>
-    <t xml:space="preserve">Ética em IA. O que são soluções éticas e o que não são soluções éticas? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Como desenvolver soluções baseadas em machine learning com princípios éticos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aula expositiva sobre ética em IA seguido de debate sobre como aplicar tais conceitos no desenvolvimento da solução de cada equipe. </t>
+    <t>Organização das equipes. Tempo de trabalho. Infra-estrutura necessária. Processo de desenvolvimento de software.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infra-estutura do projeto configurada e processos de trabalho definidos. Cada equipe deverá definir como os testes automatizados, documentação e padronização de código serão feitos no escopo dos seus projetos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discussão entre as equipes para definir os padrões e ferramentas que serão adotados em cada equipe. </t>
   </si>
   <si>
     <t>28-Março</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;strong&gt;Avaliação intermediária&lt;/strong&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;strong&gt;Avaliação intermediária. Apresentação dos projetos em andamento para o Centro de Empreendedorismo do Insper.&lt;/strong&gt;</t>
+    <t>&lt;strong&gt;Avaliação intermediária&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Avaliação intermediária. Apresentação dos projetos em andamento para o Centro de Empreendedorismo do Insper.&lt;/strong&gt;</t>
   </si>
   <si>
     <t>02-Abril</t>
@@ -237,28 +238,28 @@
     <t>04-Abril</t>
   </si>
   <si>
-    <t xml:space="preserve">Produto Viável Mínimo (MVP). Por que usar este conceito? Como definir o seu MVP? A importância de um roadmap para a solução. Infra-estrutura (github, nuvem). Processos de trabalho (branch, pull request). Testes automatizados, documentação e padronização de código.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definição do MVP para cada solução. Elaboração inicial de um roadmap. Infra-estutura do projeto configurada e processos de trabalho definidos. Cada equipe deverá definir como os testes automatizados, documentação e padronização de código serão feitos no escopo dos seus projetos. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Breve exposição sobre o conceito de MVP seguido por debate sobre a definição dos MVPs para cada solução. Debate sobre o uso de github, serviços em nuvem e processos de trabalho. Breve exposição sobre a importância de testes automatizados, documentação e padronização de código no escopo de startups. Apresentação de ferramentas que podem auxiliar as equipes nestas tarefas. Discussão entre as equipes para definir os padrões e ferramentas que serão adotados em cada equipe. </t>
+    <t xml:space="preserve">Que recursos utilizar para desenvolver soluções baseadas em IA? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cada equipe deverá descrever os recursos que provavelmente irá utilizar no desenvolvimento da sua solução. </t>
+  </si>
+  <si>
+    <t>Apresentação de alguns recursos que podem ser utilizados pelas equipes no desenvolvimento dos seus produtos.</t>
   </si>
   <si>
     <t>09-Abril</t>
   </si>
   <si>
-    <t xml:space="preserve">Desenvolvimento da solução</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evolução do código gerado, do quadro de atividades, dos modelos de machine learning e das funcionalidades da solução.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvimento da solução.</t>
+    <t>Desenvolvimento da solução</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Evolução do código gerado, do quadro de atividades, dos modelos de machine learning e das funcionalidades da solução.</t>
+  </si>
+  <si>
+    <t>Desenvolvimento da solução.</t>
   </si>
   <si>
     <t>11-Abril</t>
@@ -270,19 +271,19 @@
     <t>18-Abril</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;strong&gt;Sprint 1&lt;/strong&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;strong&gt;Sprint review&lt;/strong&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;strong&gt;Apresentação e debate sobre as entregas do sprint.&lt;/strong&gt;</t>
+    <t>&lt;strong&gt;Sprint 1&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Sprint review&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Apresentação e debate sobre as entregas do sprint.&lt;/strong&gt;</t>
   </si>
   <si>
     <t>23-Abril</t>
   </si>
   <si>
-    <t xml:space="preserve">Sprint 2</t>
+    <t>Sprint 2</t>
   </si>
   <si>
     <t>25-Abril</t>
@@ -294,13 +295,13 @@
     <t>02-Maio</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;strong&gt;Sprint 2&lt;/strong&gt;</t>
+    <t>&lt;strong&gt;Sprint 2&lt;/strong&gt;</t>
   </si>
   <si>
     <t>07-Maio</t>
   </si>
   <si>
-    <t xml:space="preserve">Sprint 3</t>
+    <t>Sprint 3</t>
   </si>
   <si>
     <t>09-Maio</t>
@@ -312,13 +313,13 @@
     <t>16-Maio</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;strong&gt;Sprint 3&lt;/strong&gt;</t>
+    <t>&lt;strong&gt;Sprint 3&lt;/strong&gt;</t>
   </si>
   <si>
     <t>21-Maio</t>
   </si>
   <si>
-    <t xml:space="preserve">Sprint 4</t>
+    <t>Sprint 4</t>
   </si>
   <si>
     <t>23-Maio</t>
@@ -327,35 +328,48 @@
     <t>28-Maio</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;strong&gt;Demo day&lt;/strong&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;strong&gt;Apresentação das soluções para a comunidade externa&lt;/strong&gt;</t>
+    <t>&lt;strong&gt;Demo day&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Apresentação das soluções para a comunidade externa&lt;/strong&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="8.000000"/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Roboto"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -366,341 +380,71 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="8">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -736,13 +480,73 @@
     <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -750,7 +554,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -770,9 +574,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -793,11 +597,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -806,13 +610,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -822,7 +626,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -831,7 +635,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -840,19 +644,30 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -874,9 +689,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -890,37 +707,38 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" style="1" width="19.147857142857141"/>
-    <col customWidth="1" min="2" max="2" style="1" width="26.28125"/>
-    <col customWidth="1" min="3" max="3" style="1" width="31.00390625"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" style="1" width="85.719285714285704"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" style="1" width="120.7192857142857"/>
-    <col customWidth="1" min="6" max="6" style="1" width="17.00390625"/>
+    <col min="1" max="1" style="7" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="26.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="31.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="85.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="120.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="17.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -936,327 +754,327 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A2" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="34.5" customFormat="1" s="1">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A3" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="63" customFormat="1" s="1">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A4" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25" customFormat="1" s="1">
+      <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="34.5" customFormat="1" s="1">
+      <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A6" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="48.75" customFormat="1" s="1">
+      <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A7" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="34.5" customFormat="1" s="1">
+      <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A8" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="48.75" customFormat="1" s="1">
+      <c r="A8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A9" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="34.5" customFormat="1" s="1">
+      <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A10" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="34.5" customFormat="1" s="1">
+      <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>43</v>
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A11" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="48.75" customFormat="1" s="1">
+      <c r="A11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>47</v>
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A12" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="63" customFormat="1" s="1">
+      <c r="A12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>51</v>
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A13" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="48.75" customFormat="1" s="1">
+      <c r="A13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>55</v>
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A14" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="34.5" customFormat="1" s="1">
+      <c r="A14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>59</v>
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A15" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="71.25" customFormat="1" s="1">
+      <c r="A15" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>64</v>
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="78.75" customHeight="1">
-      <c r="A16" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="41.25" customFormat="1" s="1">
+      <c r="A16" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="3" t="s">
         <v>68</v>
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="78.75" customHeight="1">
-      <c r="A17" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="78.75" customFormat="1" s="1">
+      <c r="A17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="3" t="s">
         <v>71</v>
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="78.75" customHeight="1">
-      <c r="A18" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="78.75" customFormat="1" s="1">
+      <c r="A18" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="3" t="s">
         <v>71</v>
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A19" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="70.5" customFormat="1" s="1">
+      <c r="A19" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>75</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -1264,343 +1082,349 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A20" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="45.75" customFormat="1" s="1">
+      <c r="A20" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="4" t="s">
         <v>81</v>
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A21" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="41.25" customFormat="1" s="1">
+      <c r="A21" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="4" t="s">
         <v>81</v>
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A22" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="41.25" customFormat="1" s="1">
+      <c r="A22" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="4" t="s">
         <v>81</v>
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A23" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="49.5" customFormat="1" s="1">
+      <c r="A23" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="4" t="s">
         <v>87</v>
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A24" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="56.25" customFormat="1" s="1">
+      <c r="A24" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="4" t="s">
         <v>81</v>
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="44.25" customHeight="1">
-      <c r="A25" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="44.25" customFormat="1" s="1">
+      <c r="A25" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="4" t="s">
         <v>81</v>
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" s="1" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A26" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="34.5" customFormat="1" s="1">
+      <c r="A26" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="4" t="s">
         <v>81</v>
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" s="1" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A27" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="37.5" customFormat="1" s="1">
+      <c r="A27" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="4" t="s">
         <v>87</v>
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18" customFormat="1" s="1">
+      <c r="A28" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="3" t="s">
+      <c r="F28" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18" customFormat="1" s="1">
+      <c r="A29" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="4" t="s">
         <v>81</v>
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A30" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18" customFormat="1" s="1">
+      <c r="A30" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="4" t="s">
         <v>81</v>
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A31" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18" customFormat="1" s="1">
+      <c r="A31" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="4" t="s">
         <v>87</v>
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A32" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18" customFormat="1" s="1">
+      <c r="A32" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="4" t="s">
         <v>81</v>
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18" customFormat="1" s="1">
+      <c r="A33" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="4" t="s">
         <v>81</v>
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A34" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18" customFormat="1" s="1">
+      <c r="A34" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="3" t="s">
         <v>105</v>
       </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18" customFormat="1" s="1">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" ht="14.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" ht="14.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" ht="14.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" ht="14.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" ht="14.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" ht="14.25">
-      <c r="A41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" ht="14.25">
-      <c r="A42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" ht="14.25">
-      <c r="A43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18" customFormat="1" s="1">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18" customFormat="1" s="1">
+      <c r="A37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18" customFormat="1" s="1">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18" customFormat="1" s="1">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18" customFormat="1" s="1">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18" customFormat="1" s="1">
+      <c r="A41" s="3"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18" customFormat="1" s="1">
+      <c r="A42" s="3"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18" customFormat="1" s="1">
+      <c r="A43" s="3"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="6"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>